--- a/excel-use-cases/OneNet/WECL-PT-01/WECL-PT-01 - IEC62559-2_TEMPLATE.xlsx
+++ b/excel-use-cases/OneNet/WECL-PT-01/WECL-PT-01 - IEC62559-2_TEMPLATE.xlsx
@@ -221,16 +221,16 @@
     <t xml:space="preserve">Diagram name</t>
   </si>
   <si>
-    <t xml:space="preserve">Use Case Diagram</t>
+    <t xml:space="preserve">BUC-1 Diagram</t>
   </si>
   <si>
     <t xml:space="preserve">Prequalifiaction_1_SequenceDiagram</t>
   </si>
   <si>
-    <t xml:space="preserve">Plan Forecast ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MarketPhase ST</t>
+    <t xml:space="preserve">Plan_Forecast_ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MarketPhase_ST</t>
   </si>
   <si>
     <t xml:space="preserve">Activation</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">IEC62559.DrawingClassification.use_case_overview</t>
   </si>
   <si>
-    <t xml:space="preserve">IEC62559.DrawingClassification.scenarios_flowchart</t>
+    <t xml:space="preserve">IEC62559.DrawingClassification.scenario_overview</t>
   </si>
   <si>
     <t xml:space="preserve">Diagram URI type</t>
@@ -1082,7 +1082,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1175,11 +1175,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1307,7 +1303,7 @@
   <dimension ref="A1:CQ153"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C25" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
+      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1693,10 +1689,10 @@
       <c r="D39" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="11" t="s">
         <v>60</v>
       </c>
       <c r="G39" s="23" t="s">
@@ -1714,13 +1710,13 @@
       <c r="D40" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1819,7 +1815,7 @@
       <c r="F47" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="25" t="s">
+      <c r="G47" s="24" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1831,25 +1827,25 @@
       <c r="C48" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="F48" s="26" t="s">
+      <c r="F48" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G48" s="26" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3"/>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="29"/>
+      <c r="C49" s="28"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>
       <c r="F49" s="11"/>
@@ -1866,10 +1862,10 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3"/>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="31"/>
+      <c r="C51" s="30"/>
       <c r="D51" s="11"/>
       <c r="E51" s="11"/>
       <c r="F51" s="11"/>
@@ -2014,7 +2010,7 @@
       <c r="F64" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G64" s="25"/>
+      <c r="G64" s="24"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
@@ -2033,7 +2029,7 @@
       <c r="F65" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="G65" s="25"/>
+      <c r="G65" s="24"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
@@ -2902,10 +2898,10 @@
       <c r="AY73" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AZ73" s="26" t="s">
+      <c r="AZ73" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="BA73" s="26" t="s">
+      <c r="BA73" s="25" t="s">
         <v>141</v>
       </c>
       <c r="BB73" s="11" t="s">
@@ -2932,19 +2928,19 @@
       <c r="BI73" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="BJ73" s="26" t="s">
+      <c r="BJ73" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="BK73" s="26" t="s">
+      <c r="BK73" s="25" t="s">
         <v>141</v>
       </c>
       <c r="BL73" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="BM73" s="26" t="s">
+      <c r="BM73" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="BN73" s="26" t="s">
+      <c r="BN73" s="25" t="s">
         <v>144</v>
       </c>
       <c r="BO73" s="11" t="s">
@@ -2962,7 +2958,7 @@
       <c r="BS73" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="BT73" s="26" t="s">
+      <c r="BT73" s="25" t="s">
         <v>149</v>
       </c>
       <c r="BU73" s="11" t="s">
@@ -2977,7 +2973,7 @@
       <c r="BX73" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="BY73" s="26" t="s">
+      <c r="BY73" s="25" t="s">
         <v>149</v>
       </c>
       <c r="BZ73" s="11" t="s">
@@ -3088,136 +3084,136 @@
       <c r="T74" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="U74" s="26" t="s">
+      <c r="U74" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="V74" s="26" t="s">
+      <c r="V74" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="W74" s="26" t="s">
+      <c r="W74" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="X74" s="26" t="s">
+      <c r="X74" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="Y74" s="26" t="s">
+      <c r="Y74" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="Z74" s="26" t="s">
+      <c r="Z74" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="AA74" s="26" t="s">
+      <c r="AA74" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="AB74" s="26" t="s">
+      <c r="AB74" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="AC74" s="26" t="s">
+      <c r="AC74" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AD74" s="26" t="s">
+      <c r="AD74" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AE74" s="26" t="s">
+      <c r="AE74" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AF74" s="26" t="s">
+      <c r="AF74" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AG74" s="26" t="s">
+      <c r="AG74" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AH74" s="26" t="s">
+      <c r="AH74" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AI74" s="26" t="s">
+      <c r="AI74" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AJ74" s="26" t="s">
+      <c r="AJ74" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AK74" s="26" t="s">
+      <c r="AK74" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AL74" s="26" t="s">
+      <c r="AL74" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AM74" s="26" t="s">
+      <c r="AM74" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AN74" s="26" t="s">
+      <c r="AN74" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AO74" s="26" t="s">
+      <c r="AO74" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AP74" s="26" t="s">
+      <c r="AP74" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AQ74" s="26" t="s">
+      <c r="AQ74" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="AR74" s="26" t="s">
+      <c r="AR74" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="AS74" s="26" t="s">
+      <c r="AS74" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="AT74" s="26" t="s">
+      <c r="AT74" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="AU74" s="26" t="s">
+      <c r="AU74" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="AV74" s="26" t="s">
+      <c r="AV74" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="AW74" s="26" t="s">
+      <c r="AW74" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="AX74" s="26" t="s">
+      <c r="AX74" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="AY74" s="26" t="s">
+      <c r="AY74" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="AZ74" s="26" t="s">
+      <c r="AZ74" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="BA74" s="26" t="s">
+      <c r="BA74" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="BB74" s="26" t="s">
+      <c r="BB74" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="BC74" s="26" t="s">
+      <c r="BC74" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="BD74" s="26" t="s">
+      <c r="BD74" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="BE74" s="26" t="s">
+      <c r="BE74" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="BF74" s="26" t="s">
+      <c r="BF74" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="BG74" s="26" t="s">
+      <c r="BG74" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="BH74" s="26" t="s">
+      <c r="BH74" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="BI74" s="26" t="s">
+      <c r="BI74" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="BJ74" s="26" t="s">
+      <c r="BJ74" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="BK74" s="26" t="s">
+      <c r="BK74" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="BL74" s="26" t="s">
+      <c r="BL74" s="25" t="s">
         <v>169</v>
       </c>
       <c r="BM74" s="11"/>
@@ -3255,19 +3251,19 @@
       <c r="CA74" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="CB74" s="26" t="s">
+      <c r="CB74" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="CC74" s="26" t="s">
+      <c r="CC74" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="CD74" s="26" t="s">
+      <c r="CD74" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="CE74" s="26" t="s">
+      <c r="CE74" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="CF74" s="26" t="s">
+      <c r="CF74" s="25" t="s">
         <v>173</v>
       </c>
       <c r="CG74" s="11"/>
@@ -4129,34 +4125,34 @@
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
-      <c r="AQ79" s="32"/>
-      <c r="BM79" s="32"/>
-      <c r="BN79" s="32"/>
-      <c r="BO79" s="32"/>
-      <c r="BP79" s="32"/>
-      <c r="BQ79" s="32"/>
-      <c r="BR79" s="32"/>
-      <c r="BS79" s="32"/>
-      <c r="BT79" s="32"/>
-      <c r="BU79" s="32"/>
-      <c r="BV79" s="32"/>
-      <c r="BW79" s="32"/>
-      <c r="BX79" s="32"/>
-      <c r="BY79" s="32"/>
-      <c r="BZ79" s="32"/>
-      <c r="CA79" s="32"/>
-      <c r="CF79" s="32"/>
-      <c r="CG79" s="32"/>
-      <c r="CH79" s="32"/>
-      <c r="CI79" s="32"/>
-      <c r="CJ79" s="32"/>
-      <c r="CK79" s="32"/>
-      <c r="CL79" s="32"/>
-      <c r="CM79" s="32"/>
-      <c r="CN79" s="32"/>
-      <c r="CO79" s="32"/>
-      <c r="CP79" s="32"/>
-      <c r="CQ79" s="32"/>
+      <c r="AQ79" s="31"/>
+      <c r="BM79" s="31"/>
+      <c r="BN79" s="31"/>
+      <c r="BO79" s="31"/>
+      <c r="BP79" s="31"/>
+      <c r="BQ79" s="31"/>
+      <c r="BR79" s="31"/>
+      <c r="BS79" s="31"/>
+      <c r="BT79" s="31"/>
+      <c r="BU79" s="31"/>
+      <c r="BV79" s="31"/>
+      <c r="BW79" s="31"/>
+      <c r="BX79" s="31"/>
+      <c r="BY79" s="31"/>
+      <c r="BZ79" s="31"/>
+      <c r="CA79" s="31"/>
+      <c r="CF79" s="31"/>
+      <c r="CG79" s="31"/>
+      <c r="CH79" s="31"/>
+      <c r="CI79" s="31"/>
+      <c r="CJ79" s="31"/>
+      <c r="CK79" s="31"/>
+      <c r="CL79" s="31"/>
+      <c r="CM79" s="31"/>
+      <c r="CN79" s="31"/>
+      <c r="CO79" s="31"/>
+      <c r="CP79" s="31"/>
+      <c r="CQ79" s="31"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="19"/>
@@ -4165,59 +4161,59 @@
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="AP80" s="32"/>
-      <c r="AQ80" s="32"/>
-      <c r="AR80" s="32"/>
-      <c r="AS80" s="32"/>
-      <c r="AT80" s="32"/>
-      <c r="AU80" s="32"/>
-      <c r="AV80" s="32"/>
-      <c r="AW80" s="32"/>
-      <c r="AX80" s="32"/>
-      <c r="AY80" s="32"/>
-      <c r="AZ80" s="32"/>
-      <c r="BA80" s="32"/>
-      <c r="BB80" s="32"/>
-      <c r="BC80" s="32"/>
-      <c r="BD80" s="32"/>
-      <c r="BE80" s="32"/>
-      <c r="BF80" s="32"/>
-      <c r="BG80" s="32"/>
-      <c r="BH80" s="32"/>
-      <c r="BI80" s="32"/>
-      <c r="BJ80" s="32"/>
-      <c r="BK80" s="32"/>
-      <c r="BL80" s="32"/>
-      <c r="BM80" s="32"/>
-      <c r="BN80" s="32"/>
-      <c r="BO80" s="32"/>
-      <c r="BP80" s="32"/>
-      <c r="BQ80" s="32"/>
-      <c r="BR80" s="32"/>
-      <c r="BS80" s="32"/>
-      <c r="BT80" s="32"/>
-      <c r="BU80" s="32"/>
-      <c r="BV80" s="32"/>
-      <c r="BW80" s="32"/>
-      <c r="BX80" s="32"/>
-      <c r="BY80" s="32"/>
-      <c r="BZ80" s="32"/>
-      <c r="CA80" s="32"/>
-      <c r="CB80" s="32"/>
-      <c r="CC80" s="32"/>
-      <c r="CD80" s="32"/>
-      <c r="CE80" s="32"/>
-      <c r="CF80" s="32"/>
-      <c r="CG80" s="32"/>
-      <c r="CH80" s="32"/>
-      <c r="CI80" s="32"/>
-      <c r="CJ80" s="32"/>
-      <c r="CK80" s="32"/>
-      <c r="CL80" s="32"/>
-      <c r="CM80" s="32"/>
-      <c r="CN80" s="32"/>
-      <c r="CO80" s="32"/>
-      <c r="CP80" s="32"/>
+      <c r="AP80" s="31"/>
+      <c r="AQ80" s="31"/>
+      <c r="AR80" s="31"/>
+      <c r="AS80" s="31"/>
+      <c r="AT80" s="31"/>
+      <c r="AU80" s="31"/>
+      <c r="AV80" s="31"/>
+      <c r="AW80" s="31"/>
+      <c r="AX80" s="31"/>
+      <c r="AY80" s="31"/>
+      <c r="AZ80" s="31"/>
+      <c r="BA80" s="31"/>
+      <c r="BB80" s="31"/>
+      <c r="BC80" s="31"/>
+      <c r="BD80" s="31"/>
+      <c r="BE80" s="31"/>
+      <c r="BF80" s="31"/>
+      <c r="BG80" s="31"/>
+      <c r="BH80" s="31"/>
+      <c r="BI80" s="31"/>
+      <c r="BJ80" s="31"/>
+      <c r="BK80" s="31"/>
+      <c r="BL80" s="31"/>
+      <c r="BM80" s="31"/>
+      <c r="BN80" s="31"/>
+      <c r="BO80" s="31"/>
+      <c r="BP80" s="31"/>
+      <c r="BQ80" s="31"/>
+      <c r="BR80" s="31"/>
+      <c r="BS80" s="31"/>
+      <c r="BT80" s="31"/>
+      <c r="BU80" s="31"/>
+      <c r="BV80" s="31"/>
+      <c r="BW80" s="31"/>
+      <c r="BX80" s="31"/>
+      <c r="BY80" s="31"/>
+      <c r="BZ80" s="31"/>
+      <c r="CA80" s="31"/>
+      <c r="CB80" s="31"/>
+      <c r="CC80" s="31"/>
+      <c r="CD80" s="31"/>
+      <c r="CE80" s="31"/>
+      <c r="CF80" s="31"/>
+      <c r="CG80" s="31"/>
+      <c r="CH80" s="31"/>
+      <c r="CI80" s="31"/>
+      <c r="CJ80" s="31"/>
+      <c r="CK80" s="31"/>
+      <c r="CL80" s="31"/>
+      <c r="CM80" s="31"/>
+      <c r="CN80" s="31"/>
+      <c r="CO80" s="31"/>
+      <c r="CP80" s="31"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
@@ -4261,30 +4257,30 @@
       <c r="X81" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="AP81" s="32"/>
-      <c r="AQ81" s="32"/>
-      <c r="AR81" s="32"/>
-      <c r="BL81" s="32"/>
-      <c r="BM81" s="32"/>
-      <c r="BN81" s="32"/>
-      <c r="BO81" s="32"/>
-      <c r="BP81" s="32"/>
-      <c r="BQ81" s="32"/>
-      <c r="BR81" s="32"/>
-      <c r="BS81" s="32"/>
-      <c r="BT81" s="32"/>
-      <c r="BU81" s="32"/>
-      <c r="BV81" s="32"/>
-      <c r="BW81" s="32"/>
-      <c r="BX81" s="32"/>
-      <c r="BY81" s="32"/>
-      <c r="BZ81" s="32"/>
-      <c r="CA81" s="32"/>
-      <c r="CB81" s="32"/>
-      <c r="CC81" s="32"/>
-      <c r="CD81" s="32"/>
-      <c r="CE81" s="32"/>
-      <c r="CF81" s="32"/>
+      <c r="AP81" s="31"/>
+      <c r="AQ81" s="31"/>
+      <c r="AR81" s="31"/>
+      <c r="BL81" s="31"/>
+      <c r="BM81" s="31"/>
+      <c r="BN81" s="31"/>
+      <c r="BO81" s="31"/>
+      <c r="BP81" s="31"/>
+      <c r="BQ81" s="31"/>
+      <c r="BR81" s="31"/>
+      <c r="BS81" s="31"/>
+      <c r="BT81" s="31"/>
+      <c r="BU81" s="31"/>
+      <c r="BV81" s="31"/>
+      <c r="BW81" s="31"/>
+      <c r="BX81" s="31"/>
+      <c r="BY81" s="31"/>
+      <c r="BZ81" s="31"/>
+      <c r="CA81" s="31"/>
+      <c r="CB81" s="31"/>
+      <c r="CC81" s="31"/>
+      <c r="CD81" s="31"/>
+      <c r="CE81" s="31"/>
+      <c r="CF81" s="31"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="3"/>
@@ -4363,13 +4359,13 @@
       <c r="Z82" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="AP82" s="32"/>
-      <c r="AQ82" s="32"/>
-      <c r="AR82" s="32"/>
-      <c r="BL82" s="32"/>
-      <c r="BM82" s="32"/>
-      <c r="CE82" s="32"/>
-      <c r="CF82" s="32"/>
+      <c r="AP82" s="31"/>
+      <c r="AQ82" s="31"/>
+      <c r="AR82" s="31"/>
+      <c r="BL82" s="31"/>
+      <c r="BM82" s="31"/>
+      <c r="CE82" s="31"/>
+      <c r="CF82" s="31"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="3"/>
@@ -4388,10 +4384,10 @@
       <c r="F83" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="G83" s="25" t="s">
+      <c r="G83" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="H83" s="25" t="s">
+      <c r="H83" s="24" t="s">
         <v>214</v>
       </c>
       <c r="I83" s="0" t="s">
@@ -4448,13 +4444,13 @@
       <c r="Z83" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="AP83" s="32"/>
-      <c r="AQ83" s="32"/>
-      <c r="AR83" s="32"/>
-      <c r="BL83" s="32"/>
-      <c r="BM83" s="32"/>
-      <c r="CE83" s="32"/>
-      <c r="CF83" s="32"/>
+      <c r="AP83" s="31"/>
+      <c r="AQ83" s="31"/>
+      <c r="AR83" s="31"/>
+      <c r="BL83" s="31"/>
+      <c r="BM83" s="31"/>
+      <c r="CE83" s="31"/>
+      <c r="CF83" s="31"/>
     </row>
     <row r="84" customFormat="false" ht="120" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="3"/>
@@ -4464,19 +4460,19 @@
       <c r="C84" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="D84" s="33" t="s">
+      <c r="D84" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="E84" s="34" t="s">
+      <c r="E84" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="F84" s="34" t="s">
+      <c r="F84" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="G84" s="35" t="s">
+      <c r="G84" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="H84" s="35" t="s">
+      <c r="H84" s="34" t="s">
         <v>231</v>
       </c>
       <c r="I84" s="0" t="s">
@@ -4533,730 +4529,730 @@
       <c r="Z84" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="AP84" s="32"/>
-      <c r="AQ84" s="32"/>
-      <c r="AR84" s="32"/>
-      <c r="BL84" s="32"/>
-      <c r="BM84" s="32"/>
-      <c r="CE84" s="32"/>
-      <c r="CF84" s="32"/>
+      <c r="AP84" s="31"/>
+      <c r="AQ84" s="31"/>
+      <c r="AR84" s="31"/>
+      <c r="BL84" s="31"/>
+      <c r="BM84" s="31"/>
+      <c r="CE84" s="31"/>
+      <c r="CF84" s="31"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AP85" s="32"/>
-      <c r="AQ85" s="32"/>
-      <c r="AR85" s="32"/>
-      <c r="BL85" s="32"/>
-      <c r="BM85" s="32"/>
-      <c r="CE85" s="32"/>
-      <c r="CF85" s="32"/>
+      <c r="AP85" s="31"/>
+      <c r="AQ85" s="31"/>
+      <c r="AR85" s="31"/>
+      <c r="BL85" s="31"/>
+      <c r="BM85" s="31"/>
+      <c r="CE85" s="31"/>
+      <c r="CF85" s="31"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="32"/>
-      <c r="L86" s="32"/>
-      <c r="M86" s="32"/>
-      <c r="N86" s="32"/>
-      <c r="O86" s="32"/>
-      <c r="P86" s="32"/>
-      <c r="Q86" s="32"/>
-      <c r="R86" s="32"/>
-      <c r="S86" s="32"/>
-      <c r="T86" s="32"/>
-      <c r="U86" s="32"/>
-      <c r="V86" s="32"/>
-      <c r="W86" s="32"/>
-      <c r="X86" s="32"/>
-      <c r="Y86" s="32"/>
-      <c r="Z86" s="32"/>
-      <c r="AA86" s="32"/>
-      <c r="AB86" s="32"/>
-      <c r="AC86" s="32"/>
-      <c r="AD86" s="32"/>
-      <c r="AE86" s="32"/>
-      <c r="AF86" s="32"/>
-      <c r="AG86" s="32"/>
-      <c r="AH86" s="32"/>
-      <c r="AI86" s="32"/>
-      <c r="AJ86" s="32"/>
-      <c r="AK86" s="32"/>
-      <c r="AL86" s="32"/>
-      <c r="AM86" s="32"/>
-      <c r="AN86" s="32"/>
-      <c r="AO86" s="32"/>
-      <c r="AP86" s="32"/>
-      <c r="AQ86" s="32"/>
-      <c r="AR86" s="32"/>
-      <c r="BL86" s="32"/>
-      <c r="BM86" s="32"/>
-      <c r="CE86" s="32"/>
-      <c r="CF86" s="32"/>
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="31"/>
+      <c r="K86" s="31"/>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="31"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="31"/>
+      <c r="Q86" s="31"/>
+      <c r="R86" s="31"/>
+      <c r="S86" s="31"/>
+      <c r="T86" s="31"/>
+      <c r="U86" s="31"/>
+      <c r="V86" s="31"/>
+      <c r="W86" s="31"/>
+      <c r="X86" s="31"/>
+      <c r="Y86" s="31"/>
+      <c r="Z86" s="31"/>
+      <c r="AA86" s="31"/>
+      <c r="AB86" s="31"/>
+      <c r="AC86" s="31"/>
+      <c r="AD86" s="31"/>
+      <c r="AE86" s="31"/>
+      <c r="AF86" s="31"/>
+      <c r="AG86" s="31"/>
+      <c r="AH86" s="31"/>
+      <c r="AI86" s="31"/>
+      <c r="AJ86" s="31"/>
+      <c r="AK86" s="31"/>
+      <c r="AL86" s="31"/>
+      <c r="AM86" s="31"/>
+      <c r="AN86" s="31"/>
+      <c r="AO86" s="31"/>
+      <c r="AP86" s="31"/>
+      <c r="AQ86" s="31"/>
+      <c r="AR86" s="31"/>
+      <c r="BL86" s="31"/>
+      <c r="BM86" s="31"/>
+      <c r="CE86" s="31"/>
+      <c r="CF86" s="31"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="32"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="32"/>
-      <c r="L87" s="32"/>
-      <c r="M87" s="32"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="32"/>
-      <c r="P87" s="32"/>
-      <c r="Q87" s="32"/>
-      <c r="R87" s="32"/>
-      <c r="S87" s="32"/>
-      <c r="T87" s="32"/>
-      <c r="U87" s="32"/>
-      <c r="V87" s="32"/>
-      <c r="W87" s="32"/>
-      <c r="X87" s="32"/>
-      <c r="Y87" s="32"/>
-      <c r="Z87" s="32"/>
-      <c r="AA87" s="32"/>
-      <c r="AB87" s="32"/>
-      <c r="AC87" s="32"/>
-      <c r="AD87" s="32"/>
-      <c r="AE87" s="32"/>
-      <c r="AF87" s="32"/>
-      <c r="AG87" s="32"/>
-      <c r="AH87" s="32"/>
-      <c r="AI87" s="32"/>
-      <c r="AJ87" s="32"/>
-      <c r="AK87" s="32"/>
-      <c r="AL87" s="32"/>
-      <c r="AM87" s="32"/>
-      <c r="AN87" s="32"/>
-      <c r="AO87" s="32"/>
-      <c r="AP87" s="32"/>
-      <c r="AQ87" s="32"/>
-      <c r="AR87" s="32"/>
-      <c r="AS87" s="32"/>
-      <c r="AT87" s="32"/>
-      <c r="AU87" s="32"/>
-      <c r="AV87" s="32"/>
-      <c r="AW87" s="32"/>
-      <c r="AX87" s="32"/>
-      <c r="AY87" s="32"/>
-      <c r="AZ87" s="32"/>
-      <c r="BA87" s="32"/>
-      <c r="BB87" s="32"/>
-      <c r="BC87" s="32"/>
-      <c r="BD87" s="32"/>
-      <c r="BE87" s="32"/>
-      <c r="BF87" s="32"/>
-      <c r="BG87" s="32"/>
-      <c r="BH87" s="32"/>
-      <c r="BI87" s="32"/>
-      <c r="BJ87" s="32"/>
-      <c r="BK87" s="32"/>
-      <c r="BL87" s="32"/>
-      <c r="BM87" s="32"/>
-      <c r="BN87" s="32"/>
-      <c r="CE87" s="32"/>
-      <c r="CF87" s="32"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="31"/>
+      <c r="K87" s="31"/>
+      <c r="L87" s="31"/>
+      <c r="M87" s="31"/>
+      <c r="N87" s="31"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="31"/>
+      <c r="Q87" s="31"/>
+      <c r="R87" s="31"/>
+      <c r="S87" s="31"/>
+      <c r="T87" s="31"/>
+      <c r="U87" s="31"/>
+      <c r="V87" s="31"/>
+      <c r="W87" s="31"/>
+      <c r="X87" s="31"/>
+      <c r="Y87" s="31"/>
+      <c r="Z87" s="31"/>
+      <c r="AA87" s="31"/>
+      <c r="AB87" s="31"/>
+      <c r="AC87" s="31"/>
+      <c r="AD87" s="31"/>
+      <c r="AE87" s="31"/>
+      <c r="AF87" s="31"/>
+      <c r="AG87" s="31"/>
+      <c r="AH87" s="31"/>
+      <c r="AI87" s="31"/>
+      <c r="AJ87" s="31"/>
+      <c r="AK87" s="31"/>
+      <c r="AL87" s="31"/>
+      <c r="AM87" s="31"/>
+      <c r="AN87" s="31"/>
+      <c r="AO87" s="31"/>
+      <c r="AP87" s="31"/>
+      <c r="AQ87" s="31"/>
+      <c r="AR87" s="31"/>
+      <c r="AS87" s="31"/>
+      <c r="AT87" s="31"/>
+      <c r="AU87" s="31"/>
+      <c r="AV87" s="31"/>
+      <c r="AW87" s="31"/>
+      <c r="AX87" s="31"/>
+      <c r="AY87" s="31"/>
+      <c r="AZ87" s="31"/>
+      <c r="BA87" s="31"/>
+      <c r="BB87" s="31"/>
+      <c r="BC87" s="31"/>
+      <c r="BD87" s="31"/>
+      <c r="BE87" s="31"/>
+      <c r="BF87" s="31"/>
+      <c r="BG87" s="31"/>
+      <c r="BH87" s="31"/>
+      <c r="BI87" s="31"/>
+      <c r="BJ87" s="31"/>
+      <c r="BK87" s="31"/>
+      <c r="BL87" s="31"/>
+      <c r="BM87" s="31"/>
+      <c r="BN87" s="31"/>
+      <c r="CE87" s="31"/>
+      <c r="CF87" s="31"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="32"/>
-      <c r="L88" s="32"/>
-      <c r="M88" s="32"/>
-      <c r="N88" s="32"/>
-      <c r="O88" s="32"/>
-      <c r="P88" s="32"/>
-      <c r="Q88" s="32"/>
-      <c r="R88" s="32"/>
-      <c r="S88" s="32"/>
-      <c r="T88" s="32"/>
-      <c r="U88" s="32"/>
-      <c r="V88" s="32"/>
-      <c r="W88" s="32"/>
-      <c r="X88" s="32"/>
-      <c r="Y88" s="32"/>
-      <c r="Z88" s="32"/>
-      <c r="AA88" s="32"/>
-      <c r="AB88" s="32"/>
-      <c r="AC88" s="32"/>
-      <c r="AD88" s="32"/>
-      <c r="AE88" s="32"/>
-      <c r="AF88" s="32"/>
-      <c r="AG88" s="32"/>
-      <c r="AH88" s="32"/>
-      <c r="AI88" s="32"/>
-      <c r="AJ88" s="32"/>
-      <c r="AK88" s="32"/>
-      <c r="AL88" s="32"/>
-      <c r="AM88" s="32"/>
-      <c r="AN88" s="32"/>
-      <c r="AO88" s="32"/>
-      <c r="AP88" s="32"/>
-      <c r="AQ88" s="32"/>
-      <c r="AR88" s="32"/>
-      <c r="AS88" s="32"/>
-      <c r="AT88" s="32"/>
-      <c r="BL88" s="32"/>
-      <c r="BM88" s="32"/>
-      <c r="CE88" s="32"/>
-      <c r="CF88" s="32"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="31"/>
+      <c r="O88" s="31"/>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="31"/>
+      <c r="R88" s="31"/>
+      <c r="S88" s="31"/>
+      <c r="T88" s="31"/>
+      <c r="U88" s="31"/>
+      <c r="V88" s="31"/>
+      <c r="W88" s="31"/>
+      <c r="X88" s="31"/>
+      <c r="Y88" s="31"/>
+      <c r="Z88" s="31"/>
+      <c r="AA88" s="31"/>
+      <c r="AB88" s="31"/>
+      <c r="AC88" s="31"/>
+      <c r="AD88" s="31"/>
+      <c r="AE88" s="31"/>
+      <c r="AF88" s="31"/>
+      <c r="AG88" s="31"/>
+      <c r="AH88" s="31"/>
+      <c r="AI88" s="31"/>
+      <c r="AJ88" s="31"/>
+      <c r="AK88" s="31"/>
+      <c r="AL88" s="31"/>
+      <c r="AM88" s="31"/>
+      <c r="AN88" s="31"/>
+      <c r="AO88" s="31"/>
+      <c r="AP88" s="31"/>
+      <c r="AQ88" s="31"/>
+      <c r="AR88" s="31"/>
+      <c r="AS88" s="31"/>
+      <c r="AT88" s="31"/>
+      <c r="BL88" s="31"/>
+      <c r="BM88" s="31"/>
+      <c r="CE88" s="31"/>
+      <c r="CF88" s="31"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="32"/>
-      <c r="M89" s="32"/>
-      <c r="N89" s="32"/>
-      <c r="O89" s="32"/>
-      <c r="P89" s="32"/>
-      <c r="Q89" s="32"/>
-      <c r="R89" s="32"/>
-      <c r="S89" s="32"/>
-      <c r="T89" s="32"/>
-      <c r="U89" s="32"/>
-      <c r="V89" s="32"/>
-      <c r="W89" s="32"/>
-      <c r="X89" s="32"/>
-      <c r="Y89" s="32"/>
-      <c r="Z89" s="32"/>
-      <c r="AA89" s="32"/>
-      <c r="AB89" s="32"/>
-      <c r="AC89" s="32"/>
-      <c r="AD89" s="32"/>
-      <c r="AE89" s="32"/>
-      <c r="AF89" s="32"/>
-      <c r="AG89" s="32"/>
-      <c r="AH89" s="32"/>
-      <c r="AI89" s="32"/>
-      <c r="AJ89" s="32"/>
-      <c r="AK89" s="32"/>
-      <c r="AL89" s="32"/>
-      <c r="AM89" s="32"/>
-      <c r="AN89" s="32"/>
-      <c r="AO89" s="32"/>
-      <c r="AP89" s="32"/>
-      <c r="AQ89" s="32"/>
-      <c r="AR89" s="32"/>
-      <c r="BL89" s="32"/>
-      <c r="BM89" s="32"/>
-      <c r="CE89" s="32"/>
-      <c r="CF89" s="32"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="31"/>
+      <c r="L89" s="31"/>
+      <c r="M89" s="31"/>
+      <c r="N89" s="31"/>
+      <c r="O89" s="31"/>
+      <c r="P89" s="31"/>
+      <c r="Q89" s="31"/>
+      <c r="R89" s="31"/>
+      <c r="S89" s="31"/>
+      <c r="T89" s="31"/>
+      <c r="U89" s="31"/>
+      <c r="V89" s="31"/>
+      <c r="W89" s="31"/>
+      <c r="X89" s="31"/>
+      <c r="Y89" s="31"/>
+      <c r="Z89" s="31"/>
+      <c r="AA89" s="31"/>
+      <c r="AB89" s="31"/>
+      <c r="AC89" s="31"/>
+      <c r="AD89" s="31"/>
+      <c r="AE89" s="31"/>
+      <c r="AF89" s="31"/>
+      <c r="AG89" s="31"/>
+      <c r="AH89" s="31"/>
+      <c r="AI89" s="31"/>
+      <c r="AJ89" s="31"/>
+      <c r="AK89" s="31"/>
+      <c r="AL89" s="31"/>
+      <c r="AM89" s="31"/>
+      <c r="AN89" s="31"/>
+      <c r="AO89" s="31"/>
+      <c r="AP89" s="31"/>
+      <c r="AQ89" s="31"/>
+      <c r="AR89" s="31"/>
+      <c r="BL89" s="31"/>
+      <c r="BM89" s="31"/>
+      <c r="CE89" s="31"/>
+      <c r="CF89" s="31"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="32"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="32"/>
-      <c r="L90" s="32"/>
-      <c r="M90" s="32"/>
-      <c r="N90" s="32"/>
-      <c r="O90" s="32"/>
-      <c r="P90" s="32"/>
-      <c r="Q90" s="32"/>
-      <c r="R90" s="32"/>
-      <c r="S90" s="32"/>
-      <c r="T90" s="32"/>
-      <c r="U90" s="32"/>
-      <c r="V90" s="32"/>
-      <c r="W90" s="32"/>
-      <c r="X90" s="32"/>
-      <c r="Y90" s="32"/>
-      <c r="Z90" s="32"/>
-      <c r="AA90" s="32"/>
-      <c r="AB90" s="32"/>
-      <c r="AC90" s="32"/>
-      <c r="AD90" s="32"/>
-      <c r="AE90" s="32"/>
-      <c r="AF90" s="32"/>
-      <c r="AG90" s="32"/>
-      <c r="AH90" s="32"/>
-      <c r="AI90" s="32"/>
-      <c r="AJ90" s="32"/>
-      <c r="AK90" s="32"/>
-      <c r="AL90" s="32"/>
-      <c r="AM90" s="32"/>
-      <c r="AN90" s="32"/>
-      <c r="AO90" s="32"/>
-      <c r="AP90" s="32"/>
-      <c r="AQ90" s="32"/>
-      <c r="AR90" s="32"/>
-      <c r="AS90" s="32"/>
-      <c r="AT90" s="32"/>
-      <c r="AU90" s="32"/>
-      <c r="AV90" s="32"/>
-      <c r="AW90" s="32"/>
-      <c r="AX90" s="32"/>
-      <c r="AY90" s="32"/>
-      <c r="AZ90" s="32"/>
-      <c r="BA90" s="32"/>
-      <c r="BB90" s="32"/>
-      <c r="BC90" s="32"/>
-      <c r="BD90" s="32"/>
-      <c r="BE90" s="32"/>
-      <c r="BF90" s="32"/>
-      <c r="BG90" s="32"/>
-      <c r="BH90" s="32"/>
-      <c r="BI90" s="32"/>
-      <c r="BJ90" s="32"/>
-      <c r="BK90" s="32"/>
-      <c r="BL90" s="32"/>
-      <c r="BM90" s="32"/>
-      <c r="BN90" s="32"/>
-      <c r="BO90" s="32"/>
-      <c r="BP90" s="32"/>
-      <c r="CE90" s="32"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="31"/>
+      <c r="L90" s="31"/>
+      <c r="M90" s="31"/>
+      <c r="N90" s="31"/>
+      <c r="O90" s="31"/>
+      <c r="P90" s="31"/>
+      <c r="Q90" s="31"/>
+      <c r="R90" s="31"/>
+      <c r="S90" s="31"/>
+      <c r="T90" s="31"/>
+      <c r="U90" s="31"/>
+      <c r="V90" s="31"/>
+      <c r="W90" s="31"/>
+      <c r="X90" s="31"/>
+      <c r="Y90" s="31"/>
+      <c r="Z90" s="31"/>
+      <c r="AA90" s="31"/>
+      <c r="AB90" s="31"/>
+      <c r="AC90" s="31"/>
+      <c r="AD90" s="31"/>
+      <c r="AE90" s="31"/>
+      <c r="AF90" s="31"/>
+      <c r="AG90" s="31"/>
+      <c r="AH90" s="31"/>
+      <c r="AI90" s="31"/>
+      <c r="AJ90" s="31"/>
+      <c r="AK90" s="31"/>
+      <c r="AL90" s="31"/>
+      <c r="AM90" s="31"/>
+      <c r="AN90" s="31"/>
+      <c r="AO90" s="31"/>
+      <c r="AP90" s="31"/>
+      <c r="AQ90" s="31"/>
+      <c r="AR90" s="31"/>
+      <c r="AS90" s="31"/>
+      <c r="AT90" s="31"/>
+      <c r="AU90" s="31"/>
+      <c r="AV90" s="31"/>
+      <c r="AW90" s="31"/>
+      <c r="AX90" s="31"/>
+      <c r="AY90" s="31"/>
+      <c r="AZ90" s="31"/>
+      <c r="BA90" s="31"/>
+      <c r="BB90" s="31"/>
+      <c r="BC90" s="31"/>
+      <c r="BD90" s="31"/>
+      <c r="BE90" s="31"/>
+      <c r="BF90" s="31"/>
+      <c r="BG90" s="31"/>
+      <c r="BH90" s="31"/>
+      <c r="BI90" s="31"/>
+      <c r="BJ90" s="31"/>
+      <c r="BK90" s="31"/>
+      <c r="BL90" s="31"/>
+      <c r="BM90" s="31"/>
+      <c r="BN90" s="31"/>
+      <c r="BO90" s="31"/>
+      <c r="BP90" s="31"/>
+      <c r="CE90" s="31"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="AP91" s="32"/>
-      <c r="AQ91" s="32"/>
-      <c r="AR91" s="32"/>
-      <c r="BL91" s="32"/>
-      <c r="BM91" s="32"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="AP91" s="31"/>
+      <c r="AQ91" s="31"/>
+      <c r="AR91" s="31"/>
+      <c r="BL91" s="31"/>
+      <c r="BM91" s="31"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="AP92" s="32"/>
-      <c r="AQ92" s="32"/>
-      <c r="AR92" s="32"/>
-      <c r="BL92" s="32"/>
-      <c r="BM92" s="32"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="AP92" s="31"/>
+      <c r="AQ92" s="31"/>
+      <c r="AR92" s="31"/>
+      <c r="BL92" s="31"/>
+      <c r="BM92" s="31"/>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="AP93" s="32"/>
-      <c r="AQ93" s="32"/>
-      <c r="AR93" s="32"/>
-      <c r="BL93" s="32"/>
-      <c r="BM93" s="32"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="AP93" s="31"/>
+      <c r="AQ93" s="31"/>
+      <c r="AR93" s="31"/>
+      <c r="BL93" s="31"/>
+      <c r="BM93" s="31"/>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="32"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="AP94" s="32"/>
-      <c r="AQ94" s="32"/>
-      <c r="AR94" s="32"/>
-      <c r="BL94" s="32"/>
-      <c r="BM94" s="32"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="AP94" s="31"/>
+      <c r="AQ94" s="31"/>
+      <c r="AR94" s="31"/>
+      <c r="BL94" s="31"/>
+      <c r="BM94" s="31"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="32"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32"/>
-      <c r="H95" s="32"/>
-      <c r="AP95" s="32"/>
-      <c r="AQ95" s="32"/>
-      <c r="AR95" s="32"/>
-      <c r="BL95" s="32"/>
-      <c r="BM95" s="32"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="31"/>
+      <c r="H95" s="31"/>
+      <c r="AP95" s="31"/>
+      <c r="AQ95" s="31"/>
+      <c r="AR95" s="31"/>
+      <c r="BL95" s="31"/>
+      <c r="BM95" s="31"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="32"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="32"/>
-      <c r="H96" s="32"/>
-      <c r="AP96" s="32"/>
-      <c r="AQ96" s="32"/>
-      <c r="AR96" s="32"/>
-      <c r="BL96" s="32"/>
-      <c r="BM96" s="32"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="31"/>
+      <c r="H96" s="31"/>
+      <c r="AP96" s="31"/>
+      <c r="AQ96" s="31"/>
+      <c r="AR96" s="31"/>
+      <c r="BL96" s="31"/>
+      <c r="BM96" s="31"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="32"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="32"/>
-      <c r="H97" s="32"/>
-      <c r="AP97" s="32"/>
-      <c r="AQ97" s="32"/>
-      <c r="AR97" s="32"/>
-      <c r="BL97" s="32"/>
-      <c r="BM97" s="32"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="31"/>
+      <c r="H97" s="31"/>
+      <c r="AP97" s="31"/>
+      <c r="AQ97" s="31"/>
+      <c r="AR97" s="31"/>
+      <c r="BL97" s="31"/>
+      <c r="BM97" s="31"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="32"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="AP98" s="32"/>
-      <c r="AQ98" s="32"/>
-      <c r="AR98" s="32"/>
-      <c r="BL98" s="32"/>
-      <c r="BM98" s="32"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="31"/>
+      <c r="H98" s="31"/>
+      <c r="AP98" s="31"/>
+      <c r="AQ98" s="31"/>
+      <c r="AR98" s="31"/>
+      <c r="BL98" s="31"/>
+      <c r="BM98" s="31"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="32"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="32"/>
-      <c r="H99" s="32"/>
-      <c r="AP99" s="32"/>
-      <c r="AQ99" s="32"/>
-      <c r="AR99" s="32"/>
-      <c r="BL99" s="32"/>
-      <c r="BM99" s="32"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="31"/>
+      <c r="D99" s="31"/>
+      <c r="E99" s="31"/>
+      <c r="H99" s="31"/>
+      <c r="AP99" s="31"/>
+      <c r="AQ99" s="31"/>
+      <c r="AR99" s="31"/>
+      <c r="BL99" s="31"/>
+      <c r="BM99" s="31"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="32"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32"/>
-      <c r="H100" s="32"/>
-      <c r="AP100" s="32"/>
-      <c r="AR100" s="32"/>
-      <c r="BL100" s="32"/>
-      <c r="BM100" s="32"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="AP100" s="31"/>
+      <c r="AR100" s="31"/>
+      <c r="BL100" s="31"/>
+      <c r="BM100" s="31"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="AR101" s="32"/>
-      <c r="BM101" s="32"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="AR101" s="31"/>
+      <c r="BM101" s="31"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="32"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
-      <c r="H102" s="32"/>
-      <c r="AR102" s="32"/>
-      <c r="BM102" s="32"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="H102" s="31"/>
+      <c r="AR102" s="31"/>
+      <c r="BM102" s="31"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="32"/>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
-      <c r="H103" s="32"/>
-      <c r="AR103" s="32"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="AR103" s="31"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="32"/>
-      <c r="C104" s="32"/>
-      <c r="D104" s="32"/>
-      <c r="E104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="AR104" s="32"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="31"/>
+      <c r="D104" s="31"/>
+      <c r="E104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="AR104" s="31"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="32"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="H105" s="32"/>
-      <c r="AR105" s="32"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="31"/>
+      <c r="D105" s="31"/>
+      <c r="E105" s="31"/>
+      <c r="H105" s="31"/>
+      <c r="AR105" s="31"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="32"/>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
-      <c r="H106" s="32"/>
-      <c r="AR106" s="32"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="31"/>
+      <c r="H106" s="31"/>
+      <c r="AR106" s="31"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="32"/>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
-      <c r="H107" s="32"/>
-      <c r="AR107" s="32"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="31"/>
+      <c r="D107" s="31"/>
+      <c r="E107" s="31"/>
+      <c r="H107" s="31"/>
+      <c r="AR107" s="31"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="32"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="32"/>
-      <c r="E108" s="32"/>
-      <c r="H108" s="32"/>
-      <c r="AR108" s="32"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="31"/>
+      <c r="D108" s="31"/>
+      <c r="E108" s="31"/>
+      <c r="H108" s="31"/>
+      <c r="AR108" s="31"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="32"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="32"/>
-      <c r="H109" s="32"/>
-      <c r="AR109" s="32"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="31"/>
+      <c r="D109" s="31"/>
+      <c r="E109" s="31"/>
+      <c r="H109" s="31"/>
+      <c r="AR109" s="31"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="32"/>
-      <c r="C110" s="32"/>
-      <c r="D110" s="32"/>
-      <c r="E110" s="32"/>
-      <c r="H110" s="32"/>
-      <c r="AR110" s="32"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="31"/>
+      <c r="H110" s="31"/>
+      <c r="AR110" s="31"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="32"/>
-      <c r="C111" s="32"/>
-      <c r="D111" s="32"/>
-      <c r="E111" s="32"/>
-      <c r="H111" s="32"/>
-      <c r="AR111" s="32"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="31"/>
+      <c r="D111" s="31"/>
+      <c r="E111" s="31"/>
+      <c r="H111" s="31"/>
+      <c r="AR111" s="31"/>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="32"/>
-      <c r="C112" s="32"/>
-      <c r="D112" s="32"/>
-      <c r="E112" s="32"/>
-      <c r="H112" s="32"/>
-      <c r="AR112" s="32"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
+      <c r="D112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="H112" s="31"/>
+      <c r="AR112" s="31"/>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="32"/>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
-      <c r="H113" s="32"/>
-      <c r="AR113" s="32"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="AR113" s="31"/>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="32"/>
-      <c r="AR114" s="32"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
+      <c r="AR114" s="31"/>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="32"/>
-      <c r="C115" s="32"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="32"/>
-      <c r="AR115" s="32"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
+      <c r="AR115" s="31"/>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="32"/>
-      <c r="C116" s="32"/>
-      <c r="D116" s="32"/>
-      <c r="E116" s="32"/>
-      <c r="AR116" s="32"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="31"/>
+      <c r="D116" s="31"/>
+      <c r="E116" s="31"/>
+      <c r="AR116" s="31"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="32"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="32"/>
-      <c r="E117" s="32"/>
-      <c r="AR117" s="32"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="31"/>
+      <c r="D117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="AR117" s="31"/>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="32"/>
-      <c r="C118" s="32"/>
-      <c r="D118" s="32"/>
-      <c r="E118" s="32"/>
-      <c r="AR118" s="32"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="D118" s="31"/>
+      <c r="E118" s="31"/>
+      <c r="AR118" s="31"/>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="32"/>
-      <c r="C119" s="32"/>
-      <c r="D119" s="32"/>
-      <c r="E119" s="32"/>
-      <c r="AR119" s="32"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="AR119" s="31"/>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="32"/>
-      <c r="C120" s="32"/>
-      <c r="D120" s="32"/>
-      <c r="E120" s="32"/>
-      <c r="AR120" s="32"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="31"/>
+      <c r="D120" s="31"/>
+      <c r="E120" s="31"/>
+      <c r="AR120" s="31"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="32"/>
-      <c r="C121" s="32"/>
-      <c r="D121" s="32"/>
-      <c r="E121" s="32"/>
-      <c r="AR121" s="32"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="31"/>
+      <c r="D121" s="31"/>
+      <c r="E121" s="31"/>
+      <c r="AR121" s="31"/>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="32"/>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="32"/>
-      <c r="C123" s="32"/>
-      <c r="D123" s="32"/>
-      <c r="E123" s="32"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="31"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="32"/>
-      <c r="C124" s="32"/>
-      <c r="D124" s="32"/>
-      <c r="E124" s="32"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="31"/>
+      <c r="E124" s="31"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="32"/>
-      <c r="C125" s="32"/>
-      <c r="D125" s="32"/>
-      <c r="E125" s="32"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="32"/>
-      <c r="C127" s="32"/>
-      <c r="D127" s="32"/>
-      <c r="E127" s="32"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="32"/>
-      <c r="C128" s="32"/>
-      <c r="D128" s="32"/>
-      <c r="E128" s="32"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="31"/>
+      <c r="E128" s="31"/>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="32"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="32"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="32"/>
-      <c r="D130" s="32"/>
+      <c r="B130" s="31"/>
+      <c r="D130" s="31"/>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="32"/>
-      <c r="D131" s="32"/>
+      <c r="B131" s="31"/>
+      <c r="D131" s="31"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="32"/>
-      <c r="D132" s="32"/>
+      <c r="B132" s="31"/>
+      <c r="D132" s="31"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="32"/>
-      <c r="D133" s="32"/>
+      <c r="B133" s="31"/>
+      <c r="D133" s="31"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="32"/>
-      <c r="D134" s="32"/>
+      <c r="B134" s="31"/>
+      <c r="D134" s="31"/>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="32"/>
-      <c r="D135" s="32"/>
+      <c r="B135" s="31"/>
+      <c r="D135" s="31"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="32"/>
-      <c r="D136" s="32"/>
+      <c r="B136" s="31"/>
+      <c r="D136" s="31"/>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="32"/>
-      <c r="D137" s="32"/>
+      <c r="B137" s="31"/>
+      <c r="D137" s="31"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="32"/>
-      <c r="D138" s="32"/>
+      <c r="B138" s="31"/>
+      <c r="D138" s="31"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="32"/>
-      <c r="D139" s="32"/>
+      <c r="B139" s="31"/>
+      <c r="D139" s="31"/>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="32"/>
-      <c r="D140" s="32"/>
+      <c r="B140" s="31"/>
+      <c r="D140" s="31"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="32"/>
-      <c r="D141" s="32"/>
+      <c r="B141" s="31"/>
+      <c r="D141" s="31"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="32"/>
-      <c r="D142" s="32"/>
+      <c r="B142" s="31"/>
+      <c r="D142" s="31"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="32"/>
-      <c r="D143" s="32"/>
+      <c r="B143" s="31"/>
+      <c r="D143" s="31"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="32"/>
-      <c r="D144" s="32"/>
+      <c r="B144" s="31"/>
+      <c r="D144" s="31"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="32"/>
-      <c r="D145" s="32"/>
+      <c r="B145" s="31"/>
+      <c r="D145" s="31"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="32"/>
-      <c r="D146" s="32"/>
+      <c r="B146" s="31"/>
+      <c r="D146" s="31"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="32"/>
-      <c r="D147" s="32"/>
+      <c r="B147" s="31"/>
+      <c r="D147" s="31"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="32"/>
-      <c r="D148" s="32"/>
+      <c r="B148" s="31"/>
+      <c r="D148" s="31"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="32"/>
-      <c r="D149" s="32"/>
+      <c r="B149" s="31"/>
+      <c r="D149" s="31"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="32"/>
-      <c r="D150" s="32"/>
+      <c r="B150" s="31"/>
+      <c r="D150" s="31"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D151" s="32"/>
+      <c r="D151" s="31"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D152" s="32"/>
+      <c r="D152" s="31"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D153" s="32"/>
+      <c r="D153" s="31"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
